--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185B9B0-257C-2746-AAF6-4382FCC6407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4B457-FAE9-1548-8F49-A7BF826C1173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="1200" yWindow="1420" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ShootData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,6 +80,26 @@
   </si>
   <si>
     <t>BeforeDelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootDataId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환 4발 중 2발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환 4발 중 3발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄환 4발 중 4발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,14 +506,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
@@ -521,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -541,16 +557,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -558,19 +574,19 @@
         <v>600</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -578,19 +594,19 @@
         <v>600</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -598,39 +614,39 @@
         <v>600</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -659,26 +675,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="3"/>
     </row>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4B457-FAE9-1548-8F49-A7BF826C1173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965CFEC-39BC-2E48-A621-FFF05C86575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1420" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="1200" yWindow="1400" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>단일공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -514,7 +518,7 @@
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
@@ -540,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -661,7 +665,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965CFEC-39BC-2E48-A621-FFF05C86575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34637934-C669-8947-899F-0B9540C6EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1400" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Angle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Target</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,6 +100,18 @@
   </si>
   <si>
     <t>AimType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveDircetion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동방향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -541,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -578,7 +586,7 @@
         <v>600</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>600</v>
@@ -598,7 +606,7 @@
         <v>600</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>600</v>
@@ -618,7 +626,7 @@
         <v>600</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>600</v>
@@ -638,10 +646,10 @@
         <v>601</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -651,6 +659,128 @@
       </c>
       <c r="F7" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>603</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>601</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>603</v>
+      </c>
+      <c r="C9" s="2">
+        <v>602</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>603</v>
+      </c>
+      <c r="C10" s="2">
+        <v>603</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>603</v>
+      </c>
+      <c r="C11" s="2">
+        <v>604</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>603</v>
+      </c>
+      <c r="C12" s="2">
+        <v>605</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>603</v>
+      </c>
+      <c r="C13" s="2">
+        <v>606</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>603</v>
+      </c>
+      <c r="C14" s="2">
+        <v>607</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +795,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
@@ -686,24 +816,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="19" customHeight="1">

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6B6859-55B1-49B6-9197-8F8740AC32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCBD14AE-8266-42ED-BEAB-7E6E665F324E}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,15 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -259,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9B108C00-9DA0-4CD8-9A2E-1CFA40B621D9}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -278,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표21" displayName="표21" ref="A2:F41" totalsRowShown="0">
-  <autoFilter ref="A2:F41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA747B0E-2652-48E4-AF28-D7B986ED2654}" name="표21" displayName="표21" ref="A2:F41" totalsRowShown="0">
+  <autoFilter ref="A2:F41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index"/>
-    <tableColumn id="1" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" name="AimType"/>
-    <tableColumn id="4" name="AfterDelay"/>
-    <tableColumn id="5" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{D4096911-17FC-4F68-B0CA-73137F98A3BB}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{A0F3AAD2-B690-433C-84DA-92F43D70F1DD}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{799C347B-0193-4ED0-AFDD-AE30E9BDCA90}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CE8182F5-7C3A-41DF-AB0A-7DB53F1E8C79}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{1735F7F6-F0C2-477F-9F8C-0B59CCD6EE30}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{3ECF91B5-56FE-414C-98CE-46AF44917ADE}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -309,7 +313,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -321,7 +325,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -368,6 +372,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +424,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,24 +592,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9529B-11FC-48C7-89EC-7B165AFF6033}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -582,36 +620,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -619,13 +657,13 @@
         <v>600</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -639,13 +677,13 @@
         <v>600</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>700</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -659,13 +697,13 @@
         <v>600</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>700</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -679,13 +717,13 @@
         <v>600</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>700</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -699,13 +737,13 @@
         <v>601</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>701</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -719,13 +757,13 @@
         <v>602</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>702</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -739,13 +777,13 @@
         <v>602</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>702</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -759,13 +797,13 @@
         <v>602</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>702</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -779,13 +817,13 @@
         <v>603</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>703</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -799,13 +837,13 @@
         <v>603</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>703</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -819,13 +857,13 @@
         <v>603</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>703</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -839,13 +877,13 @@
         <v>604</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>704</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0.5</v>
@@ -859,13 +897,13 @@
         <v>604</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>704</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -879,13 +917,13 @@
         <v>604</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>704</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -899,13 +937,13 @@
         <v>604</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>704</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -919,13 +957,13 @@
         <v>604</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>704</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -939,13 +977,13 @@
         <v>604</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>704</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -959,13 +997,13 @@
         <v>605</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>705</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -979,13 +1017,13 @@
         <v>605</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>705</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -999,13 +1037,13 @@
         <v>605</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>705</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1019,13 +1057,13 @@
         <v>605</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>705</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1039,13 +1077,13 @@
         <v>605</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>705</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1059,13 +1097,13 @@
         <v>605</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>705</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1079,13 +1117,13 @@
         <v>606</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>706</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1099,13 +1137,13 @@
         <v>606</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>706</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1119,13 +1157,13 @@
         <v>607</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>707</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -1139,13 +1177,13 @@
         <v>607</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>707</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1159,13 +1197,13 @@
         <v>607</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>707</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1179,13 +1217,13 @@
         <v>607</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>707</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1199,13 +1237,13 @@
         <v>607</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>707</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1219,13 +1257,13 @@
         <v>607</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>707</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1239,13 +1277,13 @@
         <v>608</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>708</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1259,13 +1297,13 @@
         <v>608</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>708</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1279,13 +1317,13 @@
         <v>608</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>708</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1299,13 +1337,13 @@
         <v>608</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>708</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1319,13 +1357,13 @@
         <v>608</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>708</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1339,13 +1377,13 @@
         <v>608</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>708</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1359,13 +1397,13 @@
         <v>608</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>708</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1379,13 +1417,13 @@
         <v>608</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>708</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>0</v>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6B6859-55B1-49B6-9197-8F8740AC32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDEC877-2F18-4F79-ABD6-3768ACDDF490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCBD14AE-8266-42ED-BEAB-7E6E665F324E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BC17E82-4508-41C5-907B-BA3C0EBFF9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9B108C00-9DA0-4CD8-9A2E-1CFA40B621D9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{71E151B2-FF6B-44B3-9F37-4AFC98BBB7EB}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA747B0E-2652-48E4-AF28-D7B986ED2654}" name="표21" displayName="표21" ref="A2:F41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FF53FE0-3E98-49BF-B5E7-9BF29154C608}" name="표21" displayName="표21" ref="A2:F41" totalsRowShown="0">
   <autoFilter ref="A2:F41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{D4096911-17FC-4F68-B0CA-73137F98A3BB}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{A0F3AAD2-B690-433C-84DA-92F43D70F1DD}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{799C347B-0193-4ED0-AFDD-AE30E9BDCA90}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE8182F5-7C3A-41DF-AB0A-7DB53F1E8C79}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{1735F7F6-F0C2-477F-9F8C-0B59CCD6EE30}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{3ECF91B5-56FE-414C-98CE-46AF44917ADE}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{3709EDF2-5675-4D6E-AE85-8A360F1206A9}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{D42FC53B-12A5-40BB-A49C-B2CA642E344A}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2B1C9439-990B-4F05-A79B-24B8FBDCAB2E}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{5DEC4C07-D711-4BD3-8043-142EE58E3085}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{776059A1-AC55-480B-82C6-4FCEC32A4FAF}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{17DDF723-CDA4-4BAD-A6DE-CB7DF70541CE}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9529B-11FC-48C7-89EC-7B165AFF6033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F120B86-651A-4DA1-BDCD-89CE3B994FCD}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDEC877-2F18-4F79-ABD6-3768ACDDF490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D26BA5-8035-4D4C-8D00-7D2DFB728AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BC17E82-4508-41C5-907B-BA3C0EBFF9F9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C746BD34-6890-431D-97CC-96548B2AD963}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{71E151B2-FF6B-44B3-9F37-4AFC98BBB7EB}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{42B9F8E2-87AF-445F-984A-1F27D0C4DDE8}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FF53FE0-3E98-49BF-B5E7-9BF29154C608}" name="표21" displayName="표21" ref="A2:F41" totalsRowShown="0">
-  <autoFilter ref="A2:F41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22645038-2E1F-4F89-A0C7-555580037751}" name="표21" displayName="표21" ref="B2:G41" totalsRowShown="0">
+  <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{3709EDF2-5675-4D6E-AE85-8A360F1206A9}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{D42FC53B-12A5-40BB-A49C-B2CA642E344A}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{2B1C9439-990B-4F05-A79B-24B8FBDCAB2E}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{5DEC4C07-D711-4BD3-8043-142EE58E3085}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{776059A1-AC55-480B-82C6-4FCEC32A4FAF}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{17DDF723-CDA4-4BAD-A6DE-CB7DF70541CE}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{CD77CDDC-C39F-4401-87EB-640A01B88EB6}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{CCED2B47-53F5-4F8B-A749-74DF834A6691}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3DBBA91B-5717-4CF3-833D-866713B3187F}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{700839C4-A48B-44A4-91FE-1E7508F39478}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{BB7FF310-9742-4D7E-8A7C-4DC538B4EA57}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{CDBF327C-F835-44B5-8349-FC7783003E6E}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,843 +592,843 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F120B86-651A-4DA1-BDCD-89CE3B994FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B932A-79CE-499C-A1FE-547013B9AE3C}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="2:7">
+      <c r="B3">
         <v>600</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>700</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>600</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>700</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
         <v>600</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>700</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
         <v>600</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>700</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="2:7">
+      <c r="B7">
         <v>601</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>701</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" spans="2:7">
+      <c r="B8">
         <v>602</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>702</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
         <v>602</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>702</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
         <v>602</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>702</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
         <v>603</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>703</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12" spans="2:7">
+      <c r="B12">
         <v>603</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>703</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13" spans="2:7">
+      <c r="B13">
         <v>603</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>703</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14" spans="2:7">
+      <c r="B14">
         <v>604</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
         <v>704</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
         <v>604</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>704</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
         <v>604</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
         <v>704</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17" spans="2:7">
+      <c r="B17">
         <v>604</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
         <v>704</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
         <v>604</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
         <v>704</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
         <v>604</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
         <v>704</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    <row r="20" spans="2:7">
+      <c r="B20">
         <v>605</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
         <v>705</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
         <v>605</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
         <v>705</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>11</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>605</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
         <v>705</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>11</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
         <v>605</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
         <v>705</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>11</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
         <v>605</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
         <v>705</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>11</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
         <v>605</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
         <v>705</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+    <row r="26" spans="2:7">
+      <c r="B26">
         <v>606</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>706</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.5</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="27" spans="2:7">
+      <c r="B27">
         <v>606</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>706</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="28" spans="2:7">
+      <c r="B28">
         <v>607</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
         <v>707</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
         <v>607</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
         <v>707</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="E29" t="s">
+        <v>11</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
         <v>607</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
         <v>707</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>11</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="31" spans="2:7">
+      <c r="B31">
         <v>607</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
         <v>707</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>11</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
         <v>607</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
         <v>707</v>
       </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="E32" t="s">
+        <v>11</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
         <v>607</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
         <v>707</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="E33" t="s">
+        <v>11</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="34" spans="2:7">
+      <c r="B34">
         <v>608</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>708</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="35" spans="2:7">
+      <c r="B35">
         <v>608</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>708</v>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="E35" t="s">
+        <v>11</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="36" spans="2:7">
+      <c r="B36">
         <v>608</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>708</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>11</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="37" spans="2:7">
+      <c r="B37">
         <v>608</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>708</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>11</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="38" spans="2:7">
+      <c r="B38">
         <v>608</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>708</v>
       </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>11</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="39" spans="2:7">
+      <c r="B39">
         <v>608</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>708</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>11</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="40" spans="2:7">
+      <c r="B40">
         <v>608</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>708</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>11</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="41" spans="2:7">
+      <c r="B41">
         <v>608</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>708</v>
       </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>11</v>
       </c>
       <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>0.5</v>
       </c>
     </row>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D26BA5-8035-4D4C-8D00-7D2DFB728AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BD538E-FC93-4529-AB5A-B14D8C14FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C746BD34-6890-431D-97CC-96548B2AD963}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0DB0DAC-A8FD-4AB7-807B-3C2BF4DFD212}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{42B9F8E2-87AF-445F-984A-1F27D0C4DDE8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{266E3E10-2B20-403D-840B-34189F6E4163}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22645038-2E1F-4F89-A0C7-555580037751}" name="표21" displayName="표21" ref="B2:G41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D72F4C90-16DA-474A-B1F0-FF930B4099AA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
   <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{CD77CDDC-C39F-4401-87EB-640A01B88EB6}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{CCED2B47-53F5-4F8B-A749-74DF834A6691}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3DBBA91B-5717-4CF3-833D-866713B3187F}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{700839C4-A48B-44A4-91FE-1E7508F39478}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{BB7FF310-9742-4D7E-8A7C-4DC538B4EA57}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{CDBF327C-F835-44B5-8349-FC7783003E6E}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{9A28862A-52B5-45E8-8F75-A0FAA915B0E4}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{5858E679-904A-4560-B621-3794664B6981}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{74A1A0FD-3A32-4E5B-B887-210A50855AAC}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{175AF412-1F17-4804-B1F4-ADA96DB8292F}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{1042EC3A-76CF-43AA-AB83-AFAC3C952A80}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{3F769884-4EAB-4E93-918C-83B55C6A7F6B}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3B932A-79CE-499C-A1FE-547013B9AE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEC93D9-7675-47E6-85F1-E6CE761B63B6}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -746,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="F11">
+        <v>1.5</v>
+      </c>
+      <c r="G11">
         <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:7">

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BD538E-FC93-4529-AB5A-B14D8C14FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE67F81-8527-4C5D-9521-CEAD179F57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0DB0DAC-A8FD-4AB7-807B-3C2BF4DFD212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46F2AC1C-1C4F-4261-ADD9-81B08BC666ED}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{266E3E10-2B20-403D-840B-34189F6E4163}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{27AD9D10-5B71-4384-8BA7-6C23F93D613F}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D72F4C90-16DA-474A-B1F0-FF930B4099AA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CA56FEF-3901-4CFD-84F7-662023849C6D}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
   <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{9A28862A-52B5-45E8-8F75-A0FAA915B0E4}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{5858E679-904A-4560-B621-3794664B6981}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{74A1A0FD-3A32-4E5B-B887-210A50855AAC}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{175AF412-1F17-4804-B1F4-ADA96DB8292F}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{1042EC3A-76CF-43AA-AB83-AFAC3C952A80}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{3F769884-4EAB-4E93-918C-83B55C6A7F6B}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{A53544E0-FDA1-4A0D-ABF5-7DBBCDD1F2A5}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{CF1235D6-02B1-4AE0-BAEA-06137C33D504}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C3DA635C-CFDB-4B3E-A179-76EF4752C934}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{20D1133A-FC7A-4874-A8B5-5F785F744914}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{8FD2DFAF-8018-4CCB-93E1-E0CC4559CC59}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{195CB196-51EE-4B5F-83CA-5552A0338F4A}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEC93D9-7675-47E6-85F1-E6CE761B63B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD5164-8F29-4A39-8862-3B4B703212D0}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE67F81-8527-4C5D-9521-CEAD179F57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBB9928-3A4B-46A7-A831-7BC2030EEEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46F2AC1C-1C4F-4261-ADD9-81B08BC666ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17C54E5A-83AD-49EF-B946-6AD0BBF0B697}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{27AD9D10-5B71-4384-8BA7-6C23F93D613F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5A2F4D9A-EED9-4140-B8DD-EFB111F7C976}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CA56FEF-3901-4CFD-84F7-662023849C6D}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9B967FD-1F98-4819-88EC-4EA15F4DEEEA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
   <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{A53544E0-FDA1-4A0D-ABF5-7DBBCDD1F2A5}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{CF1235D6-02B1-4AE0-BAEA-06137C33D504}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C3DA635C-CFDB-4B3E-A179-76EF4752C934}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{20D1133A-FC7A-4874-A8B5-5F785F744914}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{8FD2DFAF-8018-4CCB-93E1-E0CC4559CC59}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{195CB196-51EE-4B5F-83CA-5552A0338F4A}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{5D9A70FC-57A2-4219-A51F-E9CE6AB7154E}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{91AB602F-A8E3-4F60-9FED-0C14FFBB4316}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4744555A-66DD-47AC-8BDD-58D0B19E2E58}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B33E08DD-FCC4-4A92-84AE-B592E1224DCB}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{DCFC152A-8B16-431C-9B3A-FA548EA8FE85}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{18BCF2D2-F889-4E30-A920-92025F18F7EB}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD5164-8F29-4A39-8862-3B4B703212D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1158F39E-43F5-426D-84BE-E9FA6F4809A1}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBB9928-3A4B-46A7-A831-7BC2030EEEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1774D0A-3C98-46D4-9ABF-90D1C9D40EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17C54E5A-83AD-49EF-B946-6AD0BBF0B697}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17C9984E-7DD3-444B-A40F-171F78ADC809}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,13 @@
     <t>탄환 4발중 1발</t>
   </si>
   <si>
-    <t>Angle</t>
+    <t>World</t>
   </si>
   <si>
     <t>1발 쏘기</t>
   </si>
   <si>
-    <t>PC</t>
+    <t>Target</t>
   </si>
   <si>
     <t>탄환 3발 중 1발</t>
@@ -263,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5A2F4D9A-EED9-4140-B8DD-EFB111F7C976}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2980DB9B-06D8-4808-8A10-A034FA4C6B0C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9B967FD-1F98-4819-88EC-4EA15F4DEEEA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C9BC4B5-2F3B-4CAE-B7F4-B3502D0165E9}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
   <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{5D9A70FC-57A2-4219-A51F-E9CE6AB7154E}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{91AB602F-A8E3-4F60-9FED-0C14FFBB4316}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4744555A-66DD-47AC-8BDD-58D0B19E2E58}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B33E08DD-FCC4-4A92-84AE-B592E1224DCB}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{DCFC152A-8B16-431C-9B3A-FA548EA8FE85}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{18BCF2D2-F889-4E30-A920-92025F18F7EB}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{8191A1C6-E5A7-4BE5-B4D9-270D0A019C1E}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{2BD887E1-4F2E-4936-A403-7428599F2336}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{20D8BAE0-605E-4889-A641-3AA753B22171}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{78E85284-E219-45BB-ABCB-100C22DF419D}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{6DDA08CF-A906-4247-AC65-61021EFDD2D5}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{E4D3BAF8-F4B7-49C0-BD01-DF846F0B2813}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1158F39E-43F5-426D-84BE-E9FA6F4809A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3F5C9-5AFA-46B4-88AF-343F02F5A93B}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1774D0A-3C98-46D4-9ABF-90D1C9D40EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48798D3-9407-4C39-BC1F-912E306D48B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17C9984E-7DD3-444B-A40F-171F78ADC809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA485F34-C62C-4A66-B80D-C80288C603DB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탄환 4발중 1발</t>
+    <t>공격1_상하좌우뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>World</t>
   </si>
   <si>
-    <t>1발 쏘기</t>
+    <t>공격1_대각뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2_기관총난사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격2_기관총난사</t>
   </si>
   <si>
     <t>탄환 3발 중 1발</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
   <si>
     <t>탄환 6발중 1발</t>
@@ -263,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2980DB9B-06D8-4808-8A10-A034FA4C6B0C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{58939201-5B09-4AFF-BA6E-875F49D06098}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C9BC4B5-2F3B-4CAE-B7F4-B3502D0165E9}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G41" totalsRowShown="0">
-  <autoFilter ref="B2:G41" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAFC4AC6-6E1F-4BE5-A81F-D5F22E921FEC}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+  <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{8191A1C6-E5A7-4BE5-B4D9-270D0A019C1E}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{2BD887E1-4F2E-4936-A403-7428599F2336}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{20D8BAE0-605E-4889-A641-3AA753B22171}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{78E85284-E219-45BB-ABCB-100C22DF419D}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{6DDA08CF-A906-4247-AC65-61021EFDD2D5}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{E4D3BAF8-F4B7-49C0-BD01-DF846F0B2813}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{71FFF361-75C5-48EA-A7C8-963EBA60B388}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{FEBA899D-7ADF-4516-A1DD-EA3288E38C77}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{19D85FC3-DFD6-49AB-88E3-DD4F5BF3AF13}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{01E665D7-692D-4C02-B018-9E92F6FDCE9B}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{7873F837-86B0-4B32-8B42-0F128792FE7B}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{1482C346-D229-4396-91A2-ED23072C5247}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,20 +605,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C3F5C9-5AFA-46B4-88AF-343F02F5A93B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89B535-69C2-4521-B4E7-A946E0FC4416}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G41"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
@@ -666,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -677,59 +690,59 @@
         <v>600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -737,244 +750,244 @@
         <v>601</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>709</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>702</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>711</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>702</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>708</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>702</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>718</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>703</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>710</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>703</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>703</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -983,70 +996,70 @@
         <v>704</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1054,16 +1067,16 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1074,16 +1087,16 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1094,19 +1107,19 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G25">
         <v>0.5</v>
@@ -1114,56 +1127,56 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0.5</v>
-      </c>
-      <c r="G26">
-        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -1174,16 +1187,16 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1194,16 +1207,16 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1214,16 +1227,16 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1234,16 +1247,16 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1254,16 +1267,16 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1274,33 +1287,33 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1309,18 +1322,18 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1329,18 +1342,18 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1349,18 +1362,18 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1369,18 +1382,18 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1389,46 +1402,326 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>706</v>
+      </c>
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="D40">
-        <v>708</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41">
+        <v>606</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>706</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>607</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>707</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>607</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>707</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>607</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>707</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>607</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>707</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>607</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>707</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>607</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>707</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
         <v>608</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
         <v>708</v>
       </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
+        <v>608</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>708</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
+        <v>608</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>708</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
+        <v>608</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>708</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>608</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>708</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53">
+        <v>608</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>708</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54">
+        <v>608</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>708</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55">
+        <v>608</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>708</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>0.5</v>
       </c>
     </row>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48798D3-9407-4C39-BC1F-912E306D48B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E41058-5306-45E3-99A3-48B60D1D840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA485F34-C62C-4A66-B80D-C80288C603DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78B75D8E-78C1-4BCE-A51C-EF7EEDE1C35C}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{58939201-5B09-4AFF-BA6E-875F49D06098}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E3D0D9C8-6B89-40AA-BC71-120599B17162}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAFC4AC6-6E1F-4BE5-A81F-D5F22E921FEC}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73566363-88C8-41B8-B271-582F5C4630BA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{71FFF361-75C5-48EA-A7C8-963EBA60B388}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{FEBA899D-7ADF-4516-A1DD-EA3288E38C77}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{19D85FC3-DFD6-49AB-88E3-DD4F5BF3AF13}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{01E665D7-692D-4C02-B018-9E92F6FDCE9B}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{7873F837-86B0-4B32-8B42-0F128792FE7B}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{1482C346-D229-4396-91A2-ED23072C5247}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{0F09EDC4-A560-40E0-A9AA-BDFE9BFA17D6}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{DA87CF71-0963-4D8D-B65D-947E80F8072E}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{67C0A9C6-7DA7-4BC8-9C08-BABCD4D79581}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3227A1C2-49A9-47C0-8E85-453DEFE82F56}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{8E8DA78A-E01E-484C-BCBD-1F9149A79D24}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{D64DE215-0469-4636-AEAF-96AE310AAFF2}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89B535-69C2-4521-B4E7-A946E0FC4416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5594EBC-0E23-421F-92C7-D8FFF75BFDA9}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E41058-5306-45E3-99A3-48B60D1D840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523DA973-66F6-4C39-AA7E-F4DB3E6597CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78B75D8E-78C1-4BCE-A51C-EF7EEDE1C35C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AED8E77-8C32-46AE-ADE5-C5F5B904E47B}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E3D0D9C8-6B89-40AA-BC71-120599B17162}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1ABDF2AB-7D84-4FC9-A4B7-7E8C70BB74AC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73566363-88C8-41B8-B271-582F5C4630BA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBA13567-09D4-43A8-A7ED-EAFA589FC4D1}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{0F09EDC4-A560-40E0-A9AA-BDFE9BFA17D6}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{DA87CF71-0963-4D8D-B65D-947E80F8072E}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{67C0A9C6-7DA7-4BC8-9C08-BABCD4D79581}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3227A1C2-49A9-47C0-8E85-453DEFE82F56}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{8E8DA78A-E01E-484C-BCBD-1F9149A79D24}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{D64DE215-0469-4636-AEAF-96AE310AAFF2}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{7B78E922-DDD5-4DC6-9F99-2C325D256037}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{827DD7A7-BA1E-41DE-A525-07A79FD4EFD0}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A83B4693-6145-4419-8CF6-3FF4F93C8B54}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{5A723FB3-9CE9-4F63-AC45-4EE3260DAEF9}" name="AimType"/>
+    <tableColumn id="4" xr3:uid="{C3BC34B4-9890-49BD-8B81-17EC6B2356F2}" name="AfterDelay"/>
+    <tableColumn id="5" xr3:uid="{91B3910A-5995-4844-B0DC-A53F4B2851EA}" name="BeforeDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5594EBC-0E23-421F-92C7-D8FFF75BFDA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EF485B-0A63-4E58-BA6D-0C4B2B3C8A29}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0.5</v>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523DA973-66F6-4C39-AA7E-F4DB3E6597CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABF77A8-B93E-4FE5-8EE9-71AB198F84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AED8E77-8C32-46AE-ADE5-C5F5B904E47B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AB36C42-83BB-4281-8475-C4F60046EAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BeforeDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AfterDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeforeDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1ABDF2AB-7D84-4FC9-A4B7-7E8C70BB74AC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7D0B5A94-2C3F-4D44-AE70-D5D0A07BACAB}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBA13567-09D4-43A8-A7ED-EAFA589FC4D1}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF3A142-504C-4A99-9B87-6AEE277D1196}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{7B78E922-DDD5-4DC6-9F99-2C325D256037}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{827DD7A7-BA1E-41DE-A525-07A79FD4EFD0}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{A83B4693-6145-4419-8CF6-3FF4F93C8B54}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{5A723FB3-9CE9-4F63-AC45-4EE3260DAEF9}" name="AimType"/>
-    <tableColumn id="4" xr3:uid="{C3BC34B4-9890-49BD-8B81-17EC6B2356F2}" name="AfterDelay"/>
-    <tableColumn id="5" xr3:uid="{91B3910A-5995-4844-B0DC-A53F4B2851EA}" name="BeforeDelay"/>
+    <tableColumn id="2" xr3:uid="{3E9ACBDB-5F0D-482D-810E-4BE0A35FAA64}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{FC392ED4-DA5F-49CD-9FE2-EEFAF3FB3148}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9B5858DF-7BF3-48E0-A8B6-FBC7BCBEF12E}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{514B732A-EFA9-4F8C-A0D9-522A21C8C303}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{6E1F5A71-61B2-4432-A7D7-6902886C22A7}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{D2FE6E81-865E-4E56-A410-605102D41816}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EF485B-0A63-4E58-BA6D-0C4B2B3C8A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87598CD8-D8A5-4C72-BD0E-2D94545F4C3E}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -699,10 +699,10 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0.1</v>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABF77A8-B93E-4FE5-8EE9-71AB198F84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D557C227-1137-4B22-98E5-70A0B323B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AB36C42-83BB-4281-8475-C4F60046EAD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8492FD6-51E2-4DCA-B790-7C12A7C1ECA3}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7D0B5A94-2C3F-4D44-AE70-D5D0A07BACAB}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E2B6147E-DC2D-4143-A35F-3641BD294D71}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF3A142-504C-4A99-9B87-6AEE277D1196}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58069FA1-79F6-46CF-8A49-DAC645615B55}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{3E9ACBDB-5F0D-482D-810E-4BE0A35FAA64}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{FC392ED4-DA5F-49CD-9FE2-EEFAF3FB3148}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9B5858DF-7BF3-48E0-A8B6-FBC7BCBEF12E}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{514B732A-EFA9-4F8C-A0D9-522A21C8C303}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{6E1F5A71-61B2-4432-A7D7-6902886C22A7}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{D2FE6E81-865E-4E56-A410-605102D41816}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{D558F503-7539-4F14-9960-22B3E2953090}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{C9AB3968-0D99-4169-BBFD-712D0A514609}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F37792B6-8B99-4A74-A20A-0EE21F3DC4B7}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{72C9698A-B7DE-4363-BAD4-8BC7EC920771}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{E8600AFA-E18E-48B5-BF38-8B0903BEE4AD}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{18E8C233-1C06-4F30-A12D-EE51464B281F}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,13 +605,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87598CD8-D8A5-4C72-BD0E-2D94545F4C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E043632-5C04-428C-B32D-1015539ACB45}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D557C227-1137-4B22-98E5-70A0B323B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12918C26-54F6-4CC5-ACC1-EFDCEB69BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8492FD6-51E2-4DCA-B790-7C12A7C1ECA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6181B2AF-715E-4C4D-8CAE-086CC642A2A8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E2B6147E-DC2D-4143-A35F-3641BD294D71}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CE375A2F-56DD-41F2-A4DB-478E1FD5857B}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58069FA1-79F6-46CF-8A49-DAC645615B55}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D160195-20E9-4A34-92E8-DB477DB28331}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{D558F503-7539-4F14-9960-22B3E2953090}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{C9AB3968-0D99-4169-BBFD-712D0A514609}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F37792B6-8B99-4A74-A20A-0EE21F3DC4B7}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{72C9698A-B7DE-4363-BAD4-8BC7EC920771}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{E8600AFA-E18E-48B5-BF38-8B0903BEE4AD}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{18E8C233-1C06-4F30-A12D-EE51464B281F}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{1E372F5B-2FE3-4671-91A0-889CAE838BC8}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{A9472B02-01E6-49A3-B133-03AEA41C428D}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0EEC7D6A-1F09-411C-828B-F90DE6053961}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{5EE95684-67A5-414B-8BAE-8CC749FA2A25}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{AB593145-66E5-48BF-BBA6-D2E51D470B2E}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{083E9347-B8A8-4F50-822E-473EDFD369E6}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,13 +605,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E043632-5C04-428C-B32D-1015539ACB45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC61FD8B-DBE6-4619-A9FE-88B983E46C95}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12918C26-54F6-4CC5-ACC1-EFDCEB69BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7FD8228-E750-4B03-A9CC-6BD1CE87EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6181B2AF-715E-4C4D-8CAE-086CC642A2A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0F6FF86-8BCC-4ED2-912E-F2A7261B526C}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CE375A2F-56DD-41F2-A4DB-478E1FD5857B}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3E2BA93D-615F-4406-B762-13724856B950}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D160195-20E9-4A34-92E8-DB477DB28331}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1125B8F-207F-4A48-8D93-6E681EF936F8}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
   <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{1E372F5B-2FE3-4671-91A0-889CAE838BC8}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{A9472B02-01E6-49A3-B133-03AEA41C428D}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0EEC7D6A-1F09-411C-828B-F90DE6053961}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{5EE95684-67A5-414B-8BAE-8CC749FA2A25}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{AB593145-66E5-48BF-BBA6-D2E51D470B2E}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{083E9347-B8A8-4F50-822E-473EDFD369E6}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{8E6F5211-6B31-47C7-957F-2CCDACC46793}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{FD8EB410-AE27-4EF5-B1F8-F36365AAA2C4}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D78262A2-0304-45D7-B08C-A4B1623057B2}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2BF079B3-48EA-46F9-A3FA-D6F3C04B443B}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{614043A9-4A89-4DA7-A9DE-FCE708D4DE6C}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{04E5A22F-2148-4DBB-AFFF-5FC402489DB7}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC61FD8B-DBE6-4619-A9FE-88B983E46C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A58C110-BBF5-4E4A-BD52-5017D7641826}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7FD8228-E750-4B03-A9CC-6BD1CE87EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{258C122F-61A8-4078-9A46-70C9E34278C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0F6FF86-8BCC-4ED2-912E-F2A7261B526C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F400725-D121-40EE-A201-38288D95DC40}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,19 +100,19 @@
     <t>공격2_기관총난사</t>
   </si>
   <si>
-    <t>탄환 3발 중 1발</t>
+    <t>튕김 공 한발쏘기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Target</t>
   </si>
   <si>
-    <t>탄환 6발중 1발</t>
-  </si>
-  <si>
-    <t>탄환 2발중 1발</t>
-  </si>
-  <si>
-    <t>탄환 8발중 1발</t>
+    <t>샷건 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 3연발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3E2BA93D-615F-4406-B762-13724856B950}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D8E40A5F-ABCB-429A-957B-047B703CC2B8}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1125B8F-207F-4A48-8D93-6E681EF936F8}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G55" totalsRowShown="0">
-  <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B241A91-AB02-43E7-82AA-8D19FE050432}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G26" totalsRowShown="0">
+  <autoFilter ref="B2:G26" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{8E6F5211-6B31-47C7-957F-2CCDACC46793}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{FD8EB410-AE27-4EF5-B1F8-F36365AAA2C4}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D78262A2-0304-45D7-B08C-A4B1623057B2}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2BF079B3-48EA-46F9-A3FA-D6F3C04B443B}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{614043A9-4A89-4DA7-A9DE-FCE708D4DE6C}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{04E5A22F-2148-4DBB-AFFF-5FC402489DB7}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{B69EAB1D-951D-4A60-87E0-47F76065CBBB}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{7108C1C8-6809-43AE-9B9A-DDA518D14DCC}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{703CFEE6-0FA3-414C-A487-3F70E2747DF4}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CE9BA3A3-DCA9-4A1F-9E9C-7EEC16D732C7}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{EEA49306-40F9-4F39-8914-ABDFC5ECA2F0}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{57285937-9C29-4A49-8A2D-BE81BEA36A78}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A58C110-BBF5-4E4A-BD52-5017D7641826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64308633-CE8A-4EBC-BAF2-C88C335B268F}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G55"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1053,87 +1053,87 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1142,587 +1142,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27">
-        <v>603</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27">
-        <v>703</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28">
-        <v>604</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>704</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29">
-        <v>604</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>704</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30">
-        <v>604</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>704</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31">
-        <v>604</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>704</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32">
-        <v>604</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>704</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33">
-        <v>604</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>704</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34">
-        <v>605</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>705</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>0.5</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35">
-        <v>605</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35">
-        <v>705</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36">
-        <v>605</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>705</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
-        <v>605</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37">
-        <v>705</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>605</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38">
-        <v>705</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
-        <v>605</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39">
-        <v>705</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
-        <v>606</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40">
-        <v>706</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-      <c r="G40">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41">
-        <v>606</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41">
-        <v>706</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42">
-        <v>607</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42">
-        <v>707</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>0.5</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43">
-        <v>607</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43">
-        <v>707</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44">
-        <v>607</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44">
-        <v>707</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
-        <v>607</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45">
-        <v>707</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46">
-        <v>607</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46">
-        <v>707</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47">
-        <v>607</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47">
-        <v>707</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48">
-        <v>608</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>708</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48">
         <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49">
-        <v>608</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>708</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50">
-        <v>608</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>708</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51">
-        <v>608</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>708</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52">
-        <v>608</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>708</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53">
-        <v>608</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>708</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54">
-        <v>608</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54">
-        <v>708</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55">
-        <v>608</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55">
-        <v>708</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{258C122F-61A8-4078-9A46-70C9E34278C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18138085-8BF5-4BF0-8CD3-1D7481972215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F400725-D121-40EE-A201-38288D95DC40}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E29908DD-9F96-40C1-BAE2-165C71D96A07}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>샷건 3연발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3발 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3발 발사 연발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +284,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D8E40A5F-ABCB-429A-957B-047B703CC2B8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CD7C2664-8AA9-45DC-9068-28CC1D7BA664}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +303,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B241A91-AB02-43E7-82AA-8D19FE050432}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G26" totalsRowShown="0">
-  <autoFilter ref="B2:G26" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D32429B-D76E-4256-A1B1-3C7634EF175A}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G30" totalsRowShown="0">
+  <autoFilter ref="B2:G30" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{B69EAB1D-951D-4A60-87E0-47F76065CBBB}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{7108C1C8-6809-43AE-9B9A-DDA518D14DCC}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{703CFEE6-0FA3-414C-A487-3F70E2747DF4}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE9BA3A3-DCA9-4A1F-9E9C-7EEC16D732C7}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{EEA49306-40F9-4F39-8914-ABDFC5ECA2F0}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{57285937-9C29-4A49-8A2D-BE81BEA36A78}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{C469986E-CB6A-45A5-8DD2-14BB39823B30}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{6C96E59F-B2FE-4E8F-BBEE-EF3A8044AA3F}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D45E80AB-D9F3-4786-A1BB-4D914D7FFA85}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BEAA677C-A56B-48C7-B8B5-F2403D007929}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{8F13444D-27D0-429E-A120-EF778917D7C5}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{46E3577C-B233-44EB-BE86-AD3F36479119}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,14 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64308633-CE8A-4EBC-BAF2-C88C335B268F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8CB73A-307D-438D-A2D5-A8EF1CC840BE}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J2" sqref="J2:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -679,10 +687,10 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -699,10 +707,10 @@
         <v>11</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -719,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -1042,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1059,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1099,10 +1107,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -1122,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1142,6 +1150,86 @@
         <v>0</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>605</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>724</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>606</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>724</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>606</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>724</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>606</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>724</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
         <v>1</v>
       </c>
     </row>

--- a/_GameData/EnemyAtkGameData.xlsx
+++ b/_GameData/EnemyAtkGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18138085-8BF5-4BF0-8CD3-1D7481972215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4694A833-EA34-4E01-9219-C1557E013351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E29908DD-9F96-40C1-BAE2-165C71D96A07}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9B3A0C4-B6DD-4D2E-A287-B4BA265FBEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyAtkGameData" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CD7C2664-8AA9-45DC-9068-28CC1D7BA664}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{1AE7254F-8364-4BAF-A465-136B5379CF5C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -303,15 +303,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D32429B-D76E-4256-A1B1-3C7634EF175A}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A0330AA-1632-4974-A7E0-81CB5CAB5CFA}" name="EnemyAtkTable" displayName="EnemyAtkTable" ref="B2:G30" totalsRowShown="0">
   <autoFilter ref="B2:G30" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{C469986E-CB6A-45A5-8DD2-14BB39823B30}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{6C96E59F-B2FE-4E8F-BBEE-EF3A8044AA3F}" name="#설명" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D45E80AB-D9F3-4786-A1BB-4D914D7FFA85}" name="ShootDataId" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BEAA677C-A56B-48C7-B8B5-F2403D007929}" name="AimType"/>
-    <tableColumn id="5" xr3:uid="{8F13444D-27D0-429E-A120-EF778917D7C5}" name="BeforeDelay"/>
-    <tableColumn id="4" xr3:uid="{46E3577C-B233-44EB-BE86-AD3F36479119}" name="AfterDelay"/>
+    <tableColumn id="2" xr3:uid="{329A2DC7-50C6-42B3-B421-FBFD642B24E2}" name="Index"/>
+    <tableColumn id="1" xr3:uid="{FF5ACF1E-C639-4A6A-A3F9-D3DF7593D4D8}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A1F90EDA-D22F-4745-9443-4FF1AB509B69}" name="ShootDataId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{02B0398B-7526-4919-96CD-3194EF5D88D1}" name="AimType"/>
+    <tableColumn id="5" xr3:uid="{6610F5FF-FC77-46A2-AC48-FE9BC7D9C069}" name="BeforeDelay"/>
+    <tableColumn id="4" xr3:uid="{560EB30C-19F4-4E94-8C88-D316B457F5BD}" name="AfterDelay"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8CB73A-307D-438D-A2D5-A8EF1CC840BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4BF94-7EFC-4C22-986E-665F5FB66022}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
